--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc74a248c646c4bd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf37cce15f0a74ab4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rf37cce15f0a74ab4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R76674affa43a43a5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R76674affa43a43a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0d7aaebc692a44d6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0d7aaebc692a44d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd86cbc54dae64697"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rd86cbc54dae64697"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0e98b6582b9f4390"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R0e98b6582b9f4390"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R197c0632d2e94d34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R197c0632d2e94d34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1a329dcb451b451c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R1a329dcb451b451c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rfc0c7c27d0fa40f9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rfc0c7c27d0fa40f9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc35b82b6a22c4e44"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc35b82b6a22c4e44"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R005fedd36223494b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R005fedd36223494b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc844d436e0ec4508"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Rc844d436e0ec4508"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R13ebe334492a4bc2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R13ebe334492a4bc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Re0974f81d2f9450f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="Re0974f81d2f9450f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4852e929f90a4a53"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/75_GenericTableAdvanced.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R4852e929f90a4a53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventory" sheetId="1" r:id="R3e1a7cd802fa4ef6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
